--- a/New Code/Data.xlsx
+++ b/New Code/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirtha\Downloads\Source Code Skripsi\New Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915A9400-5C3B-473D-9D28-EB464E263C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78F15C1-D7D8-4659-8E6A-FEDBE7634BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="20490" windowHeight="10590" xr2:uid="{5F51BB78-DCC1-4A75-B6C2-BFA68F37EE24}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10590" xr2:uid="{5F51BB78-DCC1-4A75-B6C2-BFA68F37EE24}"/>
   </bookViews>
   <sheets>
     <sheet name="User Story, User Story Scenario" sheetId="4" r:id="rId1"/>
@@ -26,6 +26,10 @@
     <sheet name="User Story Generator" sheetId="14" r:id="rId11"/>
     <sheet name="Link Page" sheetId="5" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Akobesi!$A$1:$A$222</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'User Story, User Story Scenario'!$A$1:$A$224</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="944">
   <si>
     <t>BK-MK</t>
   </si>
@@ -6812,6 +6816,16 @@
     <t>As User
 I want to delete user story, linked to User, User Story
 So that I can remove irrelevant user story</t>
+  </si>
+  <si>
+    <t>As Editor
+I want to access the generated Reviewer recommendation for the manuscript, linked to reviewer
+So that I can select relevant reviewer</t>
+  </si>
+  <si>
+    <t>As Editor
+I want to create editor
+So that I can store editor profiles</t>
   </si>
 </sst>
 </file>
@@ -6922,7 +6936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7061,6 +7075,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7398,10 +7415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5B16C3-8ABE-4250-9B74-2EDEF84EEED4}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7462,7 +7480,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>372</v>
       </c>
@@ -7489,7 +7507,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>372</v>
       </c>
@@ -7510,7 +7528,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="280.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>372</v>
       </c>
@@ -7533,7 +7551,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>372</v>
       </c>
@@ -7558,7 +7576,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="178.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>372</v>
       </c>
@@ -7583,7 +7601,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>372</v>
       </c>
@@ -7604,7 +7622,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>372</v>
       </c>
@@ -7624,7 +7642,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>372</v>
       </c>
@@ -7645,7 +7663,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="165.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>372</v>
       </c>
@@ -7670,7 +7688,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>372</v>
       </c>
@@ -7693,7 +7711,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="229.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>372</v>
       </c>
@@ -7718,7 +7736,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>372</v>
       </c>
@@ -7739,7 +7757,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>372</v>
       </c>
@@ -7759,7 +7777,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>372</v>
       </c>
@@ -7780,7 +7798,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="178.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>372</v>
       </c>
@@ -7805,7 +7823,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>372</v>
       </c>
@@ -7828,7 +7846,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="191.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>372</v>
       </c>
@@ -7853,7 +7871,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>372</v>
       </c>
@@ -7874,7 +7892,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>372</v>
       </c>
@@ -7894,7 +7912,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>372</v>
       </c>
@@ -7915,7 +7933,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="165.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>372</v>
       </c>
@@ -7940,7 +7958,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>372</v>
       </c>
@@ -7963,7 +7981,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="165.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>372</v>
       </c>
@@ -7988,7 +8006,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>372</v>
       </c>
@@ -8009,7 +8027,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>372</v>
       </c>
@@ -8029,7 +8047,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>372</v>
       </c>
@@ -8050,7 +8068,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>372</v>
       </c>
@@ -8075,7 +8093,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>372</v>
       </c>
@@ -8098,7 +8116,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="293.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="293.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>372</v>
       </c>
@@ -8125,7 +8143,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>372</v>
       </c>
@@ -8146,7 +8164,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>372</v>
       </c>
@@ -8166,7 +8184,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>372</v>
       </c>
@@ -8187,7 +8205,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="178.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>372</v>
       </c>
@@ -8214,7 +8232,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>372</v>
       </c>
@@ -8237,7 +8255,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="204" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="204" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>372</v>
       </c>
@@ -8262,7 +8280,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>372</v>
       </c>
@@ -8283,7 +8301,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>372</v>
       </c>
@@ -8303,7 +8321,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>372</v>
       </c>
@@ -8324,7 +8342,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="165.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>372</v>
       </c>
@@ -8349,7 +8367,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>372</v>
       </c>
@@ -8372,7 +8390,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="191.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
         <v>372</v>
       </c>
@@ -8397,7 +8415,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
         <v>372</v>
       </c>
@@ -8418,7 +8436,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>372</v>
       </c>
@@ -8438,7 +8456,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
         <v>372</v>
       </c>
@@ -8459,7 +8477,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="178.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
         <v>372</v>
       </c>
@@ -8484,7 +8502,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>372</v>
       </c>
@@ -8507,7 +8525,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="165.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
         <v>372</v>
       </c>
@@ -8528,7 +8546,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>372</v>
       </c>
@@ -8548,7 +8566,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>372</v>
       </c>
@@ -8567,7 +8585,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>372</v>
       </c>
@@ -8587,7 +8605,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>372</v>
       </c>
@@ -8608,7 +8626,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>372</v>
       </c>
@@ -8628,7 +8646,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="165.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
         <v>372</v>
       </c>
@@ -8648,7 +8666,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>372</v>
       </c>
@@ -8670,7 +8688,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="165.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>372</v>
       </c>
@@ -8690,7 +8708,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>372</v>
       </c>
@@ -8710,7 +8728,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>372</v>
       </c>
@@ -8730,7 +8748,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
         <v>372</v>
       </c>
@@ -8752,7 +8770,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="178.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>372</v>
       </c>
@@ -8772,7 +8790,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>372</v>
       </c>
@@ -8792,7 +8810,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="165.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>372</v>
       </c>
@@ -8812,7 +8830,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>372</v>
       </c>
@@ -8832,7 +8850,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="165.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
         <v>372</v>
       </c>
@@ -8852,7 +8870,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>372</v>
       </c>
@@ -8872,7 +8890,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>372</v>
       </c>
@@ -8892,7 +8910,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>372</v>
       </c>
@@ -8912,7 +8930,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="165.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>372</v>
       </c>
@@ -8932,7 +8950,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>372</v>
       </c>
@@ -8952,7 +8970,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>372</v>
       </c>
@@ -8972,7 +8990,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
         <v>372</v>
       </c>
@@ -8991,7 +9009,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>372</v>
       </c>
@@ -9011,7 +9029,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
         <v>372</v>
       </c>
@@ -9031,7 +9049,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
         <v>372</v>
       </c>
@@ -9051,7 +9069,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>372</v>
       </c>
@@ -9070,7 +9088,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>372</v>
       </c>
@@ -9090,7 +9108,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>372</v>
       </c>
@@ -9110,7 +9128,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>372</v>
       </c>
@@ -9130,7 +9148,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
         <v>372</v>
       </c>
@@ -9149,7 +9167,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
         <v>372</v>
       </c>
@@ -9169,7 +9187,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="140.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
         <v>372</v>
       </c>
@@ -9189,7 +9207,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>372</v>
       </c>
@@ -9208,7 +9226,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>372</v>
       </c>
@@ -9228,40 +9246,33 @@
         <v>208</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="229.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="35" t="s">
-        <v>372</v>
-      </c>
-      <c r="B84" s="36" t="s">
+    <row r="84" spans="1:15" s="43" customFormat="1" ht="229.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="B84" s="51" t="s">
         <v>431</v>
       </c>
-      <c r="C84" s="37" t="s">
+      <c r="C84" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D84" s="37" t="s">
+      <c r="D84" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E84" s="37" t="s">
+      <c r="E84" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F84" s="37" t="s">
+      <c r="F84" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G84" s="37" t="s">
+      <c r="G84" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="38"/>
-      <c r="O84" s="38" t="s">
+      <c r="O84" s="43" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>372</v>
       </c>
@@ -9281,7 +9292,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>372</v>
       </c>
@@ -9300,7 +9311,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
         <v>372</v>
       </c>
@@ -9320,7 +9331,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="127.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>372</v>
       </c>
@@ -9340,7 +9351,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
         <v>372</v>
       </c>
@@ -9359,7 +9370,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>372</v>
       </c>
@@ -9379,7 +9390,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="178.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
         <v>372</v>
       </c>
@@ -9399,7 +9410,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
         <v>372</v>
       </c>
@@ -9419,7 +9430,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>372</v>
       </c>
@@ -9438,7 +9449,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
         <v>372</v>
       </c>
@@ -9458,7 +9469,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="48" t="s">
         <v>372</v>
       </c>
@@ -9478,7 +9489,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="165.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
         <v>372</v>
       </c>
@@ -9498,7 +9509,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
         <v>372</v>
       </c>
@@ -9517,7 +9528,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
         <v>372</v>
       </c>
@@ -9537,7 +9548,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="255" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="48" t="s">
         <v>372</v>
       </c>
@@ -9557,7 +9568,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="48" t="s">
         <v>372</v>
       </c>
@@ -9577,7 +9588,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>372</v>
       </c>
@@ -9596,7 +9607,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
         <v>372</v>
       </c>
@@ -9616,7 +9627,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="178.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="48" t="s">
         <v>372</v>
       </c>
@@ -9636,7 +9647,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>372</v>
       </c>
@@ -9655,7 +9666,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
         <v>372</v>
       </c>
@@ -9675,7 +9686,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="204" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="204" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
         <v>372</v>
       </c>
@@ -9699,7 +9710,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="42" t="s">
         <v>372</v>
       </c>
@@ -9726,7 +9737,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="42" t="s">
         <v>372</v>
       </c>
@@ -9752,7 +9763,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="42" t="s">
         <v>372</v>
       </c>
@@ -9779,7 +9790,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
         <v>372</v>
       </c>
@@ -9796,7 +9807,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="48" t="s">
         <v>372</v>
       </c>
@@ -9814,7 +9825,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="48" t="s">
         <v>372</v>
       </c>
@@ -9833,7 +9844,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="191.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
         <v>372</v>
       </c>
@@ -9852,7 +9863,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="306" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="306" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>372</v>
       </c>
@@ -9873,7 +9884,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="382.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="382.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
         <v>372</v>
       </c>
@@ -9894,7 +9905,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="357" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="357" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>372</v>
       </c>
@@ -9913,7 +9924,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="255" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="48" t="s">
         <v>372</v>
       </c>
@@ -9936,7 +9947,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="178.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
         <v>372</v>
       </c>
@@ -9957,7 +9968,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="242.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="48" t="s">
         <v>372</v>
       </c>
@@ -9980,7 +9991,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="191.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="48" t="s">
         <v>372</v>
       </c>
@@ -9999,7 +10010,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="48" t="s">
         <v>372</v>
       </c>
@@ -10016,7 +10027,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="344.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="344.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>372</v>
       </c>
@@ -10034,7 +10045,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="318.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="318.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="48" t="s">
         <v>372</v>
       </c>
@@ -10052,7 +10063,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="48" t="s">
         <v>372</v>
       </c>
@@ -10072,7 +10083,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="229.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="48" t="s">
         <v>372</v>
       </c>
@@ -10095,7 +10106,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="140.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="48" t="s">
         <v>372</v>
       </c>
@@ -10115,7 +10126,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="229.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="48" t="s">
         <v>372</v>
       </c>
@@ -10135,7 +10146,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="165.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="48" t="s">
         <v>372</v>
       </c>
@@ -10366,7 +10377,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="47" t="s">
         <v>374</v>
       </c>
@@ -10390,7 +10401,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="140.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="47" t="s">
         <v>374</v>
       </c>
@@ -10419,7 +10430,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="47" t="s">
         <v>374</v>
       </c>
@@ -10440,7 +10451,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="47" t="s">
         <v>374</v>
       </c>
@@ -10469,7 +10480,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="306" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="306" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="47" t="s">
         <v>374</v>
       </c>
@@ -10494,7 +10505,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="178.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="47" t="s">
         <v>374</v>
       </c>
@@ -10517,7 +10528,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="216.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="47" t="s">
         <v>374</v>
       </c>
@@ -10539,7 +10550,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="242.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="47" t="s">
         <v>374</v>
       </c>
@@ -10560,7 +10571,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="47" t="s">
         <v>374</v>
       </c>
@@ -10583,7 +10594,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="293.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="293.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="47" t="s">
         <v>374</v>
       </c>
@@ -10603,7 +10614,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="47" t="s">
         <v>374</v>
       </c>
@@ -10623,7 +10634,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="47" t="s">
         <v>375</v>
       </c>
@@ -10647,7 +10658,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="47" t="s">
         <v>375</v>
       </c>
@@ -10668,7 +10679,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="47" t="s">
         <v>375</v>
       </c>
@@ -10697,7 +10708,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="280.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="47" t="s">
         <v>375</v>
       </c>
@@ -10722,7 +10733,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="178.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="47" t="s">
         <v>375</v>
       </c>
@@ -10745,7 +10756,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="242.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="47" t="s">
         <v>375</v>
       </c>
@@ -10769,7 +10780,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="47" t="s">
         <v>375</v>
       </c>
@@ -10789,7 +10800,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="165.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="47" t="s">
         <v>375</v>
       </c>
@@ -10809,7 +10820,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="47" t="s">
         <v>375</v>
       </c>
@@ -10828,7 +10839,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="47" t="s">
         <v>375</v>
       </c>
@@ -10846,7 +10857,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="51" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="47" t="s">
         <v>375</v>
       </c>
@@ -10863,7 +10874,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="178.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="47" t="s">
         <v>375</v>
       </c>
@@ -10871,7 +10882,7 @@
         <v>710</v>
       </c>
       <c r="C160" s="46" t="s">
-        <v>769</v>
+        <v>942</v>
       </c>
       <c r="D160" s="46" t="s">
         <v>711</v>
@@ -10883,7 +10894,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="165.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="47" t="s">
         <v>375</v>
       </c>
@@ -10891,7 +10902,7 @@
         <v>252</v>
       </c>
       <c r="C161" s="46" t="s">
-        <v>388</v>
+        <v>943</v>
       </c>
       <c r="D161" s="46" t="s">
         <v>266</v>
@@ -10906,7 +10917,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="47" t="s">
         <v>375</v>
       </c>
@@ -10926,7 +10937,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="165.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="47" t="s">
         <v>375</v>
       </c>
@@ -10946,7 +10957,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="47" t="s">
         <v>375</v>
       </c>
@@ -10964,7 +10975,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="47" t="s">
         <v>376</v>
       </c>
@@ -10991,7 +11002,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="47" t="s">
         <v>376</v>
       </c>
@@ -11018,7 +11029,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="216.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="47" t="s">
         <v>376</v>
       </c>
@@ -11047,7 +11058,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="47" t="s">
         <v>376</v>
       </c>
@@ -11076,7 +11087,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="204" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="204" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="47" t="s">
         <v>376</v>
       </c>
@@ -11105,7 +11116,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="267.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="47" t="s">
         <v>376</v>
       </c>
@@ -11142,7 +11153,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="127.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="47" t="s">
         <v>377</v>
       </c>
@@ -11173,7 +11184,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="27" t="s">
         <v>377</v>
       </c>
@@ -11200,7 +11211,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="47" t="s">
         <v>377</v>
       </c>
@@ -11227,7 +11238,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="47" t="s">
         <v>377</v>
       </c>
@@ -11254,7 +11265,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="47" t="s">
         <v>378</v>
       </c>
@@ -11282,7 +11293,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="140.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="47" t="s">
         <v>378</v>
       </c>
@@ -11317,7 +11328,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="47" t="s">
         <v>378</v>
       </c>
@@ -11344,7 +11355,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="47" t="s">
         <v>378</v>
       </c>
@@ -11379,7 +11390,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="306" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="306" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="47" t="s">
         <v>378</v>
       </c>
@@ -11410,7 +11421,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="47" t="s">
         <v>378</v>
       </c>
@@ -11439,7 +11450,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="47" t="s">
         <v>378</v>
       </c>
@@ -11468,7 +11479,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="47" t="s">
         <v>378</v>
       </c>
@@ -11495,7 +11506,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="47" t="s">
         <v>378</v>
       </c>
@@ -11524,7 +11535,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="47" t="s">
         <v>378</v>
       </c>
@@ -11551,7 +11562,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="47" t="s">
         <v>378</v>
       </c>
@@ -11580,7 +11591,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="47" t="s">
         <v>378</v>
       </c>
@@ -11607,7 +11618,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="47" t="s">
         <v>378</v>
       </c>
@@ -11634,7 +11645,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="140.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="47" t="s">
         <v>378</v>
       </c>
@@ -11663,7 +11674,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="47" t="s">
         <v>378</v>
       </c>
@@ -11692,7 +11703,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="47" t="s">
         <v>378</v>
       </c>
@@ -11725,7 +11736,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="47" t="s">
         <v>378</v>
       </c>
@@ -11752,7 +11763,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="47" t="s">
         <v>378</v>
       </c>
@@ -11779,7 +11790,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="47" t="s">
         <v>379</v>
       </c>
@@ -11808,7 +11819,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" ht="140.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="47" t="s">
         <v>379</v>
       </c>
@@ -11843,7 +11854,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="47" t="s">
         <v>379</v>
       </c>
@@ -11870,7 +11881,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="47" t="s">
         <v>379</v>
       </c>
@@ -11905,7 +11916,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="306" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="306" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="47" t="s">
         <v>379</v>
       </c>
@@ -11936,7 +11947,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="47" t="s">
         <v>379</v>
       </c>
@@ -11965,7 +11976,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="280.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="47" t="s">
         <v>379</v>
       </c>
@@ -11994,7 +12005,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="47" t="s">
         <v>379</v>
       </c>
@@ -12023,7 +12034,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="47" t="s">
         <v>380</v>
       </c>
@@ -12052,7 +12063,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="140.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="47" t="s">
         <v>380</v>
       </c>
@@ -12087,7 +12098,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="47" t="s">
         <v>380</v>
       </c>
@@ -12114,7 +12125,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="47" t="s">
         <v>380</v>
       </c>
@@ -12149,7 +12160,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="306" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="306" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="47" t="s">
         <v>380</v>
       </c>
@@ -12180,7 +12191,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="47" t="s">
         <v>380</v>
       </c>
@@ -12208,7 +12219,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="127.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="47" t="s">
         <v>380</v>
       </c>
@@ -12235,7 +12246,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="47" t="s">
         <v>380</v>
       </c>
@@ -12262,7 +12273,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="242.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="47" t="s">
         <v>380</v>
       </c>
@@ -12289,7 +12300,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="229.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="47" t="s">
         <v>380</v>
       </c>
@@ -12316,7 +12327,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="47" t="s">
         <v>380</v>
       </c>
@@ -12345,7 +12356,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="47" t="s">
         <v>380</v>
       </c>
@@ -12362,7 +12373,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="331.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="331.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="47" t="s">
         <v>380</v>
       </c>
@@ -12385,7 +12396,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="47" t="s">
         <v>381</v>
       </c>
@@ -12408,7 +12419,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" ht="140.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="47" t="s">
         <v>381</v>
       </c>
@@ -12437,7 +12448,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="47" t="s">
         <v>381</v>
       </c>
@@ -12458,7 +12469,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="153" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="47" t="s">
         <v>381</v>
       </c>
@@ -12487,7 +12498,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="306" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="306" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="47" t="s">
         <v>381</v>
       </c>
@@ -12512,7 +12523,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="140.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="47" t="s">
         <v>381</v>
       </c>
@@ -12535,7 +12546,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" ht="191.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="47" t="s">
         <v>381</v>
       </c>
@@ -12558,7 +12569,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" ht="242.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="47" t="s">
         <v>381</v>
       </c>
@@ -12581,7 +12592,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="280.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="47" t="s">
         <v>381</v>
       </c>
@@ -12604,7 +12615,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="47" t="s">
         <v>381</v>
       </c>
@@ -12627,7 +12638,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="47" t="s">
         <v>381</v>
       </c>
@@ -12645,6 +12656,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A224" xr:uid="{2E5B16C3-8ABE-4250-9B74-2EDEF84EEED4}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Jisebi Checker"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -13456,13 +13474,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="51">
+      <c r="A2" s="52">
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="52" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -13473,11 +13491,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="13" t="s">
         <v>48</v>
       </c>
@@ -13486,11 +13504,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="13" t="s">
         <v>49</v>
       </c>
@@ -13499,11 +13517,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="13" t="s">
         <v>50</v>
       </c>
@@ -13512,13 +13530,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="A6" s="52">
         <v>9</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="53" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -13529,11 +13547,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="280.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="13" t="s">
         <v>33</v>
       </c>
@@ -13542,11 +13560,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="306" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="13" t="s">
         <v>34</v>
       </c>
@@ -13555,11 +13573,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="52"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="13" t="s">
         <v>35</v>
       </c>
@@ -13568,13 +13586,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
+      <c r="A10" s="52">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="52" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -13585,11 +13603,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="13" t="s">
         <v>38</v>
       </c>
@@ -13598,11 +13616,11 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="13" t="s">
         <v>39</v>
       </c>
@@ -13611,11 +13629,11 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="51"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="13" t="s">
         <v>40</v>
       </c>
@@ -13624,13 +13642,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
+      <c r="A14" s="52">
         <v>9</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="52" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -13641,11 +13659,11 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="13" t="s">
         <v>28</v>
       </c>
@@ -13654,11 +13672,11 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="13" t="s">
         <v>29</v>
       </c>
@@ -13667,11 +13685,11 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="13" t="s">
         <v>30</v>
       </c>
@@ -13680,13 +13698,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="51">
+      <c r="A18" s="52">
         <v>9</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="53" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -13697,11 +13715,11 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="13" t="s">
         <v>42</v>
       </c>
@@ -13710,11 +13728,11 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="13" t="s">
         <v>43</v>
       </c>
@@ -13723,11 +13741,11 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="13" t="s">
         <v>44</v>
       </c>
@@ -13736,13 +13754,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="51">
+      <c r="A22" s="52">
         <v>4</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="52" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -13753,11 +13771,11 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="13" t="s">
         <v>19</v>
       </c>
@@ -13766,11 +13784,11 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="13" t="s">
         <v>21</v>
       </c>
@@ -13779,11 +13797,11 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="13" t="s">
         <v>23</v>
       </c>
@@ -13792,13 +13810,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="51">
+      <c r="A26" s="52">
         <v>9</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="53" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -13809,11 +13827,11 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="13" t="s">
         <v>53</v>
       </c>
@@ -13822,11 +13840,11 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="52"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="13" t="s">
         <v>54</v>
       </c>
@@ -13835,11 +13853,11 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="52"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="13" t="s">
         <v>55</v>
       </c>
@@ -13848,13 +13866,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="52" t="s">
         <v>85</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="53" t="s">
         <v>86</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -13865,11 +13883,11 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="52"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="13" t="s">
         <v>89</v>
       </c>
@@ -13878,11 +13896,11 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="52"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="13" t="s">
         <v>90</v>
       </c>
@@ -13891,11 +13909,11 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="52"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="13" t="s">
         <v>91</v>
       </c>
@@ -13904,13 +13922,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="52" t="s">
         <v>85</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="53" t="s">
         <v>92</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -13921,11 +13939,11 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="52"/>
+      <c r="C35" s="53"/>
       <c r="D35" s="13" t="s">
         <v>94</v>
       </c>
@@ -13934,11 +13952,11 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="52"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="13" t="s">
         <v>95</v>
       </c>
@@ -13947,11 +13965,11 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="52"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="13" t="s">
         <v>96</v>
       </c>
@@ -13960,13 +13978,13 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="52" t="s">
         <v>85</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="53" t="s">
         <v>97</v>
       </c>
       <c r="D38" s="13" t="s">
@@ -13977,11 +13995,11 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="13" t="s">
         <v>99</v>
       </c>
@@ -13990,11 +14008,11 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="52"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="13" t="s">
         <v>100</v>
       </c>
@@ -14003,11 +14021,11 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="52"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="13" t="s">
         <v>101</v>
       </c>
@@ -14016,13 +14034,13 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="52" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="53" t="s">
         <v>133</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -14033,11 +14051,11 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="52"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="13" t="s">
         <v>103</v>
       </c>
@@ -14046,11 +14064,11 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="52"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="13" t="s">
         <v>104</v>
       </c>
@@ -14059,11 +14077,11 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="52"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="13" t="s">
         <v>105</v>
       </c>
@@ -14072,13 +14090,13 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="53" t="s">
         <v>87</v>
       </c>
       <c r="D46" s="13" t="s">
@@ -14089,11 +14107,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="52"/>
+      <c r="C47" s="53"/>
       <c r="D47" s="13" t="s">
         <v>107</v>
       </c>
@@ -14102,11 +14120,11 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="52"/>
+      <c r="C48" s="53"/>
       <c r="D48" s="13" t="s">
         <v>108</v>
       </c>
@@ -14115,11 +14133,11 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="52"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="13" t="s">
         <v>109</v>
       </c>
@@ -14128,60 +14146,60 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="53">
+      <c r="A50" s="54">
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="54" t="s">
         <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E50" s="57" t="s">
+      <c r="E50" s="58" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="53"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E51" s="55"/>
+      <c r="E51" s="56"/>
     </row>
     <row r="52" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="53">
+      <c r="A52" s="54">
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="53" t="s">
+      <c r="C52" s="54" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E52" s="57" t="s">
+      <c r="E52" s="58" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="53"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E53" s="55"/>
+      <c r="E53" s="56"/>
     </row>
     <row r="54" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
@@ -14201,32 +14219,32 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="54">
+      <c r="A55" s="55">
         <v>4</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E55" s="57" t="s">
+      <c r="E55" s="58" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="54"/>
+      <c r="C56" s="55"/>
       <c r="D56" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E56" s="55"/>
+      <c r="E56" s="56"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
@@ -14246,69 +14264,69 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="53">
+      <c r="A58" s="54">
         <v>7</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="54" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="55" t="s">
+      <c r="E58" s="56" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="53"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E59" s="55"/>
+      <c r="E59" s="56"/>
     </row>
     <row r="60" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="53">
+      <c r="A60" s="54">
         <v>10</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="54" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E60" s="57" t="s">
+      <c r="E60" s="58" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="53"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E61" s="57"/>
+      <c r="E61" s="58"/>
     </row>
     <row r="62" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="53">
+      <c r="A62" s="54">
         <v>11</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="54" t="s">
         <v>6</v>
       </c>
       <c r="D62" s="14" t="s">
@@ -14319,11 +14337,11 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="53"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="14" t="s">
         <v>126</v>
       </c>
@@ -14366,13 +14384,13 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="56" t="s">
         <v>85</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="56" t="s">
+      <c r="C66" s="57" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="13" t="s">
@@ -14383,11 +14401,11 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="56"/>
+      <c r="C67" s="57"/>
       <c r="D67" s="13" t="s">
         <v>25</v>
       </c>
@@ -14396,11 +14414,11 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="56"/>
+      <c r="C68" s="57"/>
       <c r="D68" s="13" t="s">
         <v>132</v>
       </c>
@@ -14409,11 +14427,11 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="56"/>
+      <c r="C69" s="57"/>
       <c r="D69" s="13" t="s">
         <v>130</v>
       </c>
@@ -14422,13 +14440,13 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="55" t="s">
         <v>85</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="53" t="s">
+      <c r="C70" s="54" t="s">
         <v>134</v>
       </c>
       <c r="D70" s="13" t="s">
@@ -14439,11 +14457,11 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
+      <c r="A71" s="55"/>
       <c r="B71" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="53"/>
+      <c r="C71" s="54"/>
       <c r="D71" s="13" t="s">
         <v>136</v>
       </c>
@@ -14452,13 +14470,13 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="55" t="s">
         <v>85</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="53" t="s">
+      <c r="C72" s="54" t="s">
         <v>137</v>
       </c>
       <c r="D72" s="13" t="s">
@@ -14469,11 +14487,11 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
+      <c r="A73" s="55"/>
       <c r="B73" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="53"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="13" t="s">
         <v>139</v>
       </c>
@@ -14482,11 +14500,11 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="53"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="13" t="s">
         <v>140</v>
       </c>
@@ -14617,8 +14635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD39725F-DFFE-4DC9-A2E3-0AECF25DD03E}">
   <dimension ref="A1:O222"/>
   <sheetViews>
-    <sheetView topLeftCell="M128" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O128"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A112" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18600,6 +18618,7 @@
       <c r="O222" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A222" xr:uid="{FD39725F-DFFE-4DC9-A2E3-0AECF25DD03E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
